--- a/frontend/public/EmployeeSample.xlsx
+++ b/frontend/public/EmployeeSample.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\start\OneDrive\Desktop\2.0\sahay-crm\frontend\src\assets\SampleFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\start\OneDrive\Desktop\2.0\sahay-crm\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C89F1D-E541-44A3-850A-67398DC7BEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C53E01-C801-4104-A913-3995130D3398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A68D0274-A424-4241-9539-687D2517EA73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>PRAGATHI MEDLABS PRIVATE LIMITED</t>
   </si>
@@ -79,13 +80,91 @@
   </si>
   <si>
     <t>No Remarks Added</t>
+  </si>
+  <si>
+    <t>Not Interested</t>
+  </si>
+  <si>
+    <t>FollowUp</t>
+  </si>
+  <si>
+    <t>Interested</t>
+  </si>
+  <si>
+    <t>Not Picked Up</t>
+  </si>
+  <si>
+    <t>Busy</t>
+  </si>
+  <si>
+    <t>Junk</t>
+  </si>
+  <si>
+    <t>DIAM AUTO PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>BATRA NUMERRO PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>MILANGE EXPORTS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>DWARACS TECHNOLOGIES PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>divvya20@hotmail.com</t>
+  </si>
+  <si>
+    <t>ankit@thebatraanumerology.com</t>
+  </si>
+  <si>
+    <t>shashank@melangeexports.co.in</t>
+  </si>
+  <si>
+    <t>glramrao22@gmail.com</t>
+  </si>
+  <si>
+    <t>Dlf Qe</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Bangalore North</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>MORAB SAI CHITS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>kedarichougala11011@gmail.com</t>
+  </si>
+  <si>
+    <t>Raibag</t>
+  </si>
+  <si>
+    <t>SUSTAINABLE OASIS PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>kush.sharma01@gmail.com</t>
+  </si>
+  <si>
+    <t>Ghaziabad</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +185,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -137,6 +222,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -452,13 +546,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D46B03-83E5-4ACF-B633-92351BE874AF}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.21875" bestFit="1" customWidth="1"/>
@@ -467,9 +561,11 @@
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -498,7 +594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -524,6 +620,180 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6">
+        <v>9999000207</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="8">
+        <v>45313</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6">
+        <v>9990538950</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="8">
+        <v>45307</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9986258722</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="8">
+        <v>45314</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9980665555</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="8">
+        <v>45316</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="12">
+        <v>9972284675</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="13">
+        <v>45316</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12">
+        <v>9971754123</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="13">
+        <v>45313</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -532,5 +802,70 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{A55825B9-A671-4C1B-A7D3-D883EE28624B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{37780A53-F635-4D07-A898-78037B967FBF}">
+          <x14:formula1>
+            <xm:f>lists!$A$1:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DC3F47-FE00-4E78-804D-25876500E749}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>